--- a/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Columbia-v0.7.0.xlsx
+++ b/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Columbia-v0.7.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Penetrometer-with-Edge-Computing-and-Intelligent-Embedded-Systems\SYS_DEV\Columbia\V0\V0.7\v0.7.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821EFCD3-F8D4-4C9E-9E81-A849B78F7BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A09CAA-2238-4A7C-AA1C-FB11C2143EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Total Cost</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>360 Brass Rod: 1/4 in Outside Dia, 4 ft Overall Lg, H02, Mill, 45,000 psi Yield Strength</t>
+  </si>
+  <si>
+    <t>heat shrink</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/SHRINK-KON-Heat-Shrink-Tubing-0-75-in-3KH60?opr=ILOF</t>
+  </si>
+  <si>
+    <t>SHRINK-KON Heat Shrink Tubing: 0.75 in I.D. Before Shrinking, 0.38 in I.D. After Shrinking, 10 PK</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +610,7 @@
         <v>5.89</v>
       </c>
       <c r="E2" s="6">
+        <f t="shared" ref="E2:E4" si="0">C2*D2</f>
         <v>5.89</v>
       </c>
       <c r="F2" s="6"/>
@@ -621,10 +631,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>17.29</v>
+        <v>14.46</v>
       </c>
       <c r="E3" s="6">
-        <v>17.29</v>
+        <f t="shared" si="0"/>
+        <v>14.46</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -644,10 +655,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>6.42</v>
+        <v>12.25</v>
       </c>
       <c r="E4" s="6">
-        <v>6.42</v>
+        <f t="shared" si="0"/>
+        <v>12.25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -659,13 +671,26 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.76</v>
+      </c>
+      <c r="E5" s="6">
+        <f>C5*D5</f>
+        <v>7.76</v>
+      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
     </row>
@@ -921,7 +946,7 @@
       </c>
       <c r="E30" s="6">
         <f>SUM(E2:E29)</f>
-        <v>29.6</v>
+        <v>40.36</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
@@ -977,8 +1002,9 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{5A653921-1EFE-4F04-8A57-C82FAD3E509A}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{A2E1C8C8-6A04-46E2-AC51-28CA639AB5C3}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{DF7A5359-89D1-4378-AEAB-FD422BE4C122}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{3552A92A-EFA4-4FB0-92CC-E82180001E88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Columbia-v0.7.0.xlsx
+++ b/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Columbia-v0.7.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Penetrometer-with-Edge-Computing-and-Intelligent-Embedded-Systems\SYS_DEV\Columbia\V0\V0.7\v0.7.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A09CAA-2238-4A7C-AA1C-FB11C2143EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEF360-DF10-4B88-9D95-A3D7AFEFC324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Total Cost</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>SHRINK-KON Heat Shrink Tubing: 0.75 in I.D. Before Shrinking, 0.38 in I.D. After Shrinking, 10 PK</t>
+  </si>
+  <si>
+    <t>1/2" Bore Double Split Shaft Locking Collar Black Oxide Finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Double Split Shaft Locking Collar</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/DAYTON-Shaft-Collar-2-Piece-1L698</t>
+  </si>
+  <si>
+    <t>https://www.mscdirect.com/product/details/65021594</t>
   </si>
 </sst>
 </file>
@@ -539,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,14 +707,29 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E6" s="6">
+        <f>C6*D6</f>
+        <v>4.4800000000000004</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -946,7 +973,7 @@
       </c>
       <c r="E30" s="6">
         <f>SUM(E2:E29)</f>
-        <v>40.36</v>
+        <v>44.84</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
@@ -1003,8 +1030,10 @@
     <hyperlink ref="G4" r:id="rId2" xr:uid="{A2E1C8C8-6A04-46E2-AC51-28CA639AB5C3}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{DF7A5359-89D1-4378-AEAB-FD422BE4C122}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{3552A92A-EFA4-4FB0-92CC-E82180001E88}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{FA8CF8E9-26AB-43B4-820A-5FF0ECE212F3}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{B0CFF966-AF61-4A69-82E7-3D5DCE98FD10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Columbia-v0.7.0.xlsx
+++ b/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Columbia-v0.7.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Penetrometer-with-Edge-Computing-and-Intelligent-Embedded-Systems\SYS_DEV\Columbia\V0\V0.7\v0.7.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEF360-DF10-4B88-9D95-A3D7AFEFC324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B760F-440A-4854-9B2D-0513B08FDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Total Cost</t>
   </si>
@@ -83,18 +83,12 @@
     <t>abs tube for spike</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/260-Brass-Round-Tube-1-2-in-48KU75?opr=ODOH&amp;analytics=FM:Order%20History</t>
-  </si>
-  <si>
     <t>https://www.grainger.com/product/ABS-Tube-Stock-3-ft-Lg-60CY12?opr=ODOH&amp;analytics=FM:Order%20History</t>
   </si>
   <si>
     <t>https://www.grainger.com/product/360-Brass-Rod-1-4-in-Outside-803H36?opr=ILOF</t>
   </si>
   <si>
-    <t>260 Brass Round Tube: 1/2 in Outside Dia, 0.472 in Inside Dia, 0.014 in Wall Thick, 12 in Overall Lg</t>
-  </si>
-  <si>
     <t>ABS Tube Stock: 3 ft Lg, 1/4 in Inside Dia, 1/2 in Outside Dia, 0.13 in Wall Thick, Opaque, Black</t>
   </si>
   <si>
@@ -119,13 +113,37 @@
     <t>1/2" Bore Double Split Shaft Locking Collar Black Oxide Finish</t>
   </si>
   <si>
-    <t xml:space="preserve"> Double Split Shaft Locking Collar</t>
-  </si>
-  <si>
     <t>https://www.grainger.com/product/DAYTON-Shaft-Collar-2-Piece-1L698</t>
   </si>
   <si>
     <t>https://www.mscdirect.com/product/details/65021594</t>
+  </si>
+  <si>
+    <t>Double Split Shaft Locking Collar</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/260-Brass-Round-Tube-17-32-48KU83?opr=ODOH&amp;analytics=FM:Order%20History</t>
+  </si>
+  <si>
+    <t>260 Brass Round Tube: 17/32 in Outside Dia, 0.503 in Inside Dia, 0.014 in Wall Thick, 260, Mill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides onto the plastic tube easily. </t>
+  </si>
+  <si>
+    <t>https://www.harborfreight.com/high-strength-super-glue-10-pack-68345.html</t>
+  </si>
+  <si>
+    <t>HFT High-Strength Super Glue</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/SUPER-GLUE-Instant-Adhesive-Future-Glue-3EHP8</t>
+  </si>
+  <si>
+    <t>SUPER GLUE Instant Adhesive: Future Glue, Gen Purpose, 0.17 fl oz</t>
+  </si>
+  <si>
+    <t>Super Glue</t>
   </si>
 </sst>
 </file>
@@ -551,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -613,21 +631,23 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>5.89</v>
+        <v>6.41</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2:E4" si="0">C2*D2</f>
-        <v>5.89</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>6.41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -637,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -650,10 +670,10 @@
         <v>14.46</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -674,20 +694,20 @@
         <v>12.25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -701,7 +721,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
@@ -711,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -725,30 +745,56 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4.99</v>
+      </c>
+      <c r="E7" s="6">
+        <f>C7*D7</f>
+        <v>4.99</v>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.89</v>
+      </c>
+      <c r="E8" s="6">
+        <f>C8*D8</f>
+        <v>3.89</v>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -973,7 +1019,7 @@
       </c>
       <c r="E30" s="6">
         <f>SUM(E2:E29)</f>
-        <v>44.84</v>
+        <v>54.24</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
@@ -1026,14 +1072,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5A653921-1EFE-4F04-8A57-C82FAD3E509A}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{A2E1C8C8-6A04-46E2-AC51-28CA639AB5C3}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{DF7A5359-89D1-4378-AEAB-FD422BE4C122}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{3552A92A-EFA4-4FB0-92CC-E82180001E88}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{FA8CF8E9-26AB-43B4-820A-5FF0ECE212F3}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{B0CFF966-AF61-4A69-82E7-3D5DCE98FD10}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{A2E1C8C8-6A04-46E2-AC51-28CA639AB5C3}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{DF7A5359-89D1-4378-AEAB-FD422BE4C122}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{3552A92A-EFA4-4FB0-92CC-E82180001E88}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{FA8CF8E9-26AB-43B4-820A-5FF0ECE212F3}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{B0CFF966-AF61-4A69-82E7-3D5DCE98FD10}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{4C1B4732-A388-4A05-ACD7-7F60A4FA52BC}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{A34649B7-C9A8-4DBC-80D3-EB9A1FEFCAB2}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{7EEE3C29-E311-470E-A566-3FAB362B9E20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>